--- a/data/evaluation/evaluation_North_Summer_Beets.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3836.333701319413</v>
+        <v>3834.430753687251</v>
       </c>
       <c r="C4" t="n">
-        <v>25669080.01710534</v>
+        <v>24804139.25664756</v>
       </c>
       <c r="D4" t="n">
-        <v>5066.466225793412</v>
+        <v>4980.375413224144</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6935882361433603</v>
+        <v>-0.6365213877835421</v>
       </c>
     </row>
     <row r="5">
